--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,19 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
@@ -64,199 +61,163 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
-    <t>proud</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -614,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -733,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
         <v>18</v>
@@ -875,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,31 +962,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>118</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <v>0.9375</v>
-      </c>
-      <c r="L9">
-        <v>15</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7532467532467533</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C10">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,719 +1094,479 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>236</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L12">
+        <v>23</v>
+      </c>
+      <c r="M12">
+        <v>23</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L13">
+        <v>68</v>
+      </c>
+      <c r="M13">
+        <v>68</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>29</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L15">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7890625</v>
+      </c>
+      <c r="L16">
+        <v>101</v>
+      </c>
+      <c r="M16">
+        <v>101</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.775</v>
+      </c>
+      <c r="L17">
+        <v>93</v>
+      </c>
+      <c r="M17">
+        <v>93</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7547169811320755</v>
+      </c>
+      <c r="L18">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>80</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L19">
+        <v>107</v>
+      </c>
+      <c r="M19">
+        <v>107</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L20">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
+      <c r="K22">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
-      <c r="M12">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.68125</v>
+      </c>
+      <c r="L24">
+        <v>109</v>
+      </c>
+      <c r="M24">
+        <v>109</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>8</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L27">
         <v>39</v>
       </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.875</v>
-      </c>
-      <c r="L15">
-        <v>7</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L16">
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M16">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L17">
-        <v>48</v>
-      </c>
-      <c r="M17">
-        <v>48</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.296137339055794</v>
-      </c>
-      <c r="C18">
-        <v>69</v>
-      </c>
-      <c r="D18">
-        <v>69</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>164</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L18">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>23</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="K28">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L28">
+        <v>57</v>
+      </c>
+      <c r="M28">
+        <v>57</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K19">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L19">
-        <v>10</v>
-      </c>
-      <c r="M19">
-        <v>10</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.175</v>
-      </c>
-      <c r="C21">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
-      <c r="M21">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L24">
-        <v>39</v>
-      </c>
-      <c r="M24">
-        <v>39</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L25">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>13</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L26">
-        <v>44</v>
-      </c>
-      <c r="M26">
-        <v>44</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L27">
-        <v>22</v>
-      </c>
-      <c r="M27">
-        <v>22</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L28">
+      <c r="K29">
+        <v>0.58</v>
+      </c>
+      <c r="L29">
         <v>29</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>29</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.7123287671232876</v>
-      </c>
-      <c r="L29">
-        <v>52</v>
-      </c>
-      <c r="M29">
-        <v>52</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1860,18 +1581,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1883,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.6923076923076923</v>
+        <v>0.5430809399477807</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>208</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1909,21 +1630,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.6923076923076923</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1935,21 +1656,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.68</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1961,21 +1682,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1987,21 +1708,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2013,21 +1734,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L36">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2039,21 +1760,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2065,21 +1786,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5833333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2091,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5789473684210527</v>
+        <v>0.4</v>
       </c>
       <c r="L39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2117,21 +1838,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.539906103286385</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2143,21 +1864,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.5333333333333333</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2169,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5294117647058824</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L42">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2195,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.5277777777777778</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L43">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2221,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.5142857142857142</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2247,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.34375</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2273,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4806201550387597</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L46">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="M46">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2299,21 +2020,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>67</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4545454545454545</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="L47">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2325,21 +2046,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.358695652173913</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2351,21 +2072,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>59</v>
+        <v>880</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.35</v>
+        <v>0.01553829078801332</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2377,21 +2098,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>13</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K50">
-        <v>0.2972972972972973</v>
+        <v>0.006532897806812879</v>
       </c>
       <c r="L50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2403,111 +2124,33 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K51">
-        <v>0.2916666666666667</v>
+        <v>0.006119162640901771</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K52">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>10</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K53">
-        <v>0.25</v>
-      </c>
-      <c r="L53">
-        <v>8</v>
-      </c>
-      <c r="M53">
-        <v>8</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54">
-        <v>0.01707317073170732</v>
-      </c>
-      <c r="L54">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>403</v>
+        <v>3086</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -73,49 +76,64 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>wow</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>wow</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>free</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>free</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>support</t>
@@ -127,21 +145,9 @@
     <t>safety</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
@@ -154,13 +160,16 @@
     <t>relief</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>credit</t>
   </si>
   <si>
     <t>dear</t>
@@ -169,40 +178,46 @@
     <t>ready</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>share</t>
@@ -575,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +598,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
         <v>31</v>
@@ -644,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
         <v>13</v>
@@ -662,19 +677,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -694,38 +709,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>32</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -736,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="L5">
         <v>21</v>
       </c>
-      <c r="K5">
-        <v>0.9615384615384616</v>
-      </c>
-      <c r="L5">
-        <v>25</v>
-      </c>
       <c r="M5">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -794,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6551724137931034</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
         <v>0.9473684210526315</v>
@@ -844,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6388888888888888</v>
+        <v>0.5993150684931506</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.9130434782608695</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5958904109589042</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1841085271317829</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>421</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L10">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1693121693121693</v>
+        <v>0.1821705426356589</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>157</v>
+        <v>422</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0.8666666666666667</v>
@@ -1094,63 +1109,87 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06349206349206349</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>158</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L12">
+        <v>96</v>
+      </c>
+      <c r="M12">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>16</v>
       </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>236</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L12">
-        <v>23</v>
-      </c>
-      <c r="M12">
-        <v>23</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>238</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1214,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1240,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1266,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.7547169811320755</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1292,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>0.7535211267605634</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="M19">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1318,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K20">
-        <v>0.7254901960784313</v>
+        <v>0.7734375</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1344,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1375,16 +1414,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1396,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1422,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>0.68125</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L24">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M24">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1448,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>0.6785714285714286</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1474,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>0.6521739130434783</v>
+        <v>0.7</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1500,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6190476190476191</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1526,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6063829787234043</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1552,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>0.58</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1578,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>0.5531914893617021</v>
+        <v>0.58</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1609,16 +1648,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>0.5430809399477807</v>
+        <v>0.5625</v>
       </c>
       <c r="L31">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1630,15 +1669,15 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>175</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L32">
         <v>26</v>
@@ -1656,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1682,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>0.5</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1708,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.4705882352941176</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1734,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.4529411764705882</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1760,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.4157303370786517</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1786,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>52</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L38">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="M38">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1812,21 +1851,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.4</v>
+        <v>0.425</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1838,21 +1877,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.4</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1864,21 +1903,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.3777777777777778</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1890,21 +1929,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.3717948717948718</v>
+        <v>0.4</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1916,21 +1955,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.3561643835616438</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1942,21 +1981,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.3538461538461539</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1968,21 +2007,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.34375</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1994,21 +2033,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.3430962343096234</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L46">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2020,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.2428571428571429</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2046,21 +2085,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.01565995525727069</v>
+        <v>0.328125</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2072,21 +2111,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>880</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.01553829078801332</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2098,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>887</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.006532897806812879</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2124,33 +2163,137 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>2129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.006119162640901771</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K52">
+        <v>0.02237136465324385</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>20</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53">
+        <v>0.01775804661487236</v>
+      </c>
+      <c r="L53">
+        <v>16</v>
+      </c>
+      <c r="M53">
+        <v>16</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54">
+        <v>0.008407286314806165</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>20</v>
+      </c>
+      <c r="N54">
         <v>0.9</v>
       </c>
-      <c r="O51">
+      <c r="O54">
         <v>0.09999999999999998</v>
       </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>3086</v>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55">
+        <v>0.004829362524146813</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+      <c r="M55">
+        <v>16</v>
+      </c>
+      <c r="N55">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O55">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3091</v>
       </c>
     </row>
   </sheetData>
